--- a/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="487">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T09:02:45+00:00</t>
+    <t>2023-07-27T15:12:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1254,6 +1254,102 @@
   </si>
   <si>
     <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.extension:eclaire-site-contact-name</t>
+  </si>
+  <si>
+    <t>eclaire-site-contact-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-site-contact-name}
+</t>
+  </si>
+  <si>
+    <t>Nom du contact spécifique au site de recrutement</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer le nom de contact spécifique au site de recrutement</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t>ele-1
+ref-1</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>ResearchStudy.reasonStopped</t>
@@ -1747,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1756,7 +1852,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.44921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -8616,20 +8712,18 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -8654,13 +8748,13 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
@@ -8678,7 +8772,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>397</v>
+        <v>158</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8687,37 +8781,37 @@
         <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>276</v>
+        <v>67</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>404</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8736,16 +8830,16 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>406</v>
+        <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>407</v>
+        <v>95</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>408</v>
+        <v>161</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>409</v>
+        <v>97</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8783,19 +8877,19 @@
         <v>37</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>162</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8807,16 +8901,16 @@
         <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>410</v>
+        <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -8827,12 +8921,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>37</v>
       </c>
@@ -8841,7 +8937,7 @@
         <v>35</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -8853,13 +8949,13 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8910,7 +9006,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>412</v>
+        <v>162</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8922,19 +9018,19 @@
         <v>58</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>416</v>
+        <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>37</v>
@@ -8942,10 +9038,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8965,18 +9061,20 @@
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>155</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>156</v>
+        <v>405</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9025,7 +9123,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9034,10 +9132,10 @@
         <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>37</v>
+        <v>409</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>37</v>
@@ -9046,7 +9144,7 @@
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>37</v>
@@ -9057,21 +9155,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -9080,19 +9178,19 @@
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>95</v>
+        <v>411</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>161</v>
+        <v>412</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>97</v>
+        <v>413</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9118,43 +9216,43 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>37</v>
+        <v>415</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>162</v>
+        <v>416</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>37</v>
@@ -9174,46 +9272,44 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>37</v>
       </c>
@@ -9261,28 +9357,28 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -9293,10 +9389,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9304,7 +9400,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>46</v>
@@ -9316,19 +9412,19 @@
         <v>37</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>241</v>
+        <v>425</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9378,10 +9474,10 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>46</v>
@@ -9393,16 +9489,16 @@
         <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>428</v>
+        <v>37</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9410,10 +9506,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9433,16 +9529,16 @@
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>271</v>
@@ -9471,13 +9567,13 @@
         <v>37</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>37</v>
+        <v>430</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>37</v>
+        <v>431</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>37</v>
@@ -9495,7 +9591,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -9510,7 +9606,7 @@
         <v>59</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>275</v>
@@ -9519,10 +9615,10 @@
         <v>276</v>
       </c>
       <c r="AN66" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -9541,7 +9637,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
@@ -9553,16 +9649,16 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>155</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>241</v>
+        <v>439</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9618,7 +9714,7 @@
         <v>35</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>58</v>
@@ -9627,16 +9723,16 @@
         <v>59</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>67</v>
+        <v>441</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>439</v>
+        <v>37</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>37</v>
@@ -9644,10 +9740,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9670,13 +9766,13 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9727,7 +9823,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -9742,7 +9838,7 @@
         <v>59</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>37</v>
@@ -9751,7 +9847,7 @@
         <v>67</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>37</v>
+        <v>447</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>37</v>
@@ -9759,10 +9855,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9874,10 +9970,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9991,14 +10087,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10020,10 +10116,10 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>97</v>
@@ -10078,7 +10174,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10110,10 +10206,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10121,7 +10217,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>46</v>
@@ -10139,10 +10235,10 @@
         <v>155</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>241</v>
@@ -10195,10 +10291,10 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>46</v>
@@ -10210,7 +10306,7 @@
         <v>59</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>37</v>
@@ -10219,7 +10315,7 @@
         <v>67</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>37</v>
+        <v>459</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>37</v>
@@ -10227,10 +10323,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10256,10 +10352,10 @@
         <v>177</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>271</v>
@@ -10288,13 +10384,13 @@
         <v>37</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>454</v>
+        <v>37</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>37</v>
@@ -10312,7 +10408,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10327,7 +10423,7 @@
         <v>59</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>275</v>
@@ -10336,14 +10432,831 @@
         <v>276</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>37</v>
+        <v>464</v>
       </c>
       <c r="AO73" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO73">
+  <autoFilter ref="A1:AO80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10353,7 +11266,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T15:12:13+00:00</t>
+    <t>2023-07-27T16:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil pour le projet ECLAIRE</t>
+    <t>Profil de ResearchStudy pour le projet ECLAIRE</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1254,102 +1254,6 @@
   </si>
   <si>
     <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.extension:eclaire-site-contact-name</t>
-  </si>
-  <si>
-    <t>eclaire-site-contact-name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-site-contact-name}
-</t>
-  </si>
-  <si>
-    <t>Nom du contact spécifique au site de recrutement</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer le nom de contact spécifique au site de recrutement</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t>ele-1
-ref-1</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>ResearchStudy.reasonStopped</t>
@@ -1843,7 +1747,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO80"/>
+  <dimension ref="A1:AO73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1852,7 +1756,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.44921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2848,7 +2752,7 @@
         <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>37</v>
@@ -2965,7 +2869,7 @@
         <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>37</v>
@@ -3082,7 +2986,7 @@
         <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>37</v>
@@ -3199,7 +3103,7 @@
         <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>37</v>
@@ -3316,7 +3220,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>37</v>
@@ -3433,7 +3337,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>37</v>
@@ -5902,7 +5806,7 @@
         <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>37</v>
@@ -6255,7 +6159,7 @@
         <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>47</v>
@@ -6489,7 +6393,7 @@
         <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>37</v>
@@ -6606,7 +6510,7 @@
         <v>36</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
@@ -6840,7 +6744,7 @@
         <v>36</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>37</v>
@@ -6957,7 +6861,7 @@
         <v>36</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>37</v>
@@ -7306,7 +7210,7 @@
         <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>37</v>
@@ -7887,7 +7791,7 @@
         <v>36</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>37</v>
@@ -8004,7 +7908,7 @@
         <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
@@ -8121,7 +8025,7 @@
         <v>36</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>37</v>
@@ -8355,7 +8259,7 @@
         <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>37</v>
@@ -8589,7 +8493,7 @@
         <v>36</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>37</v>
@@ -8712,18 +8616,20 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>156</v>
+        <v>398</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -8748,13 +8654,13 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>37</v>
+        <v>400</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
@@ -8772,7 +8678,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>158</v>
+        <v>397</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8781,37 +8687,37 @@
         <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>37</v>
+        <v>402</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>37</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8830,16 +8736,16 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>94</v>
+        <v>406</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>95</v>
+        <v>407</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>161</v>
+        <v>408</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8877,19 +8783,19 @@
         <v>37</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>162</v>
+        <v>405</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8901,16 +8807,16 @@
         <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>60</v>
+        <v>411</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -8921,14 +8827,12 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>37</v>
       </c>
@@ -8937,7 +8841,7 @@
         <v>35</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -8949,13 +8853,13 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9006,7 +8910,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>162</v>
+        <v>412</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -9018,19 +8922,19 @@
         <v>58</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>37</v>
+        <v>417</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>37</v>
@@ -9038,10 +8942,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9061,20 +8965,18 @@
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>155</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>405</v>
+        <v>156</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9123,7 +9025,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>408</v>
+        <v>158</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9132,10 +9034,10 @@
         <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>409</v>
+        <v>37</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>37</v>
@@ -9144,7 +9046,7 @@
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>37</v>
@@ -9155,21 +9057,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>37</v>
@@ -9178,19 +9080,19 @@
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>411</v>
+        <v>95</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>412</v>
+        <v>161</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>413</v>
+        <v>97</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9216,43 +9118,43 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>414</v>
+        <v>37</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>416</v>
+        <v>162</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>37</v>
@@ -9272,44 +9174,46 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>37</v>
       </c>
@@ -9357,28 +9261,28 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -9389,10 +9293,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9400,7 +9304,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>46</v>
@@ -9412,19 +9316,19 @@
         <v>37</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>425</v>
+        <v>241</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9474,10 +9378,10 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>46</v>
@@ -9489,16 +9393,16 @@
         <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>37</v>
+        <v>428</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>37</v>
+        <v>429</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9506,10 +9410,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9529,16 +9433,16 @@
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>271</v>
@@ -9567,31 +9471,31 @@
         <v>37</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -9606,7 +9510,7 @@
         <v>59</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>275</v>
@@ -9615,10 +9519,10 @@
         <v>276</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>434</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -9637,7 +9541,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
@@ -9649,16 +9553,16 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>439</v>
+        <v>241</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9714,7 +9618,7 @@
         <v>35</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>58</v>
@@ -9723,16 +9627,16 @@
         <v>59</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>441</v>
+        <v>67</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>37</v>
+        <v>439</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>37</v>
@@ -9740,10 +9644,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9766,13 +9670,13 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9823,7 +9727,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -9838,7 +9742,7 @@
         <v>59</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>37</v>
@@ -9847,7 +9751,7 @@
         <v>67</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>447</v>
+        <v>37</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>37</v>
@@ -9855,10 +9759,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9970,10 +9874,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10087,14 +9991,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10116,10 +10020,10 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>97</v>
@@ -10174,7 +10078,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10206,10 +10110,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10217,7 +10121,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>46</v>
@@ -10235,10 +10139,10 @@
         <v>155</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>241</v>
@@ -10291,10 +10195,10 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>46</v>
@@ -10306,7 +10210,7 @@
         <v>59</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>37</v>
@@ -10315,7 +10219,7 @@
         <v>67</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>459</v>
+        <v>37</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>37</v>
@@ -10323,10 +10227,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10352,10 +10256,10 @@
         <v>177</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>271</v>
@@ -10384,13 +10288,13 @@
         <v>37</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>37</v>
+        <v>455</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>37</v>
@@ -10408,7 +10312,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10423,7 +10327,7 @@
         <v>59</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>275</v>
@@ -10432,831 +10336,14 @@
         <v>276</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>464</v>
+        <v>37</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO80" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO80">
+  <autoFilter ref="A1:AO73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11266,7 +10353,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T16:32:50+00:00</t>
+    <t>2023-07-27T17:03:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T17:03:25+00:00</t>
+    <t>2023-07-28T07:09:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-extension-contact-spécifique-au-site/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T07:09:41+00:00</t>
+    <t>2023-07-28T07:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
